--- a/da-ptud-qllkmt/GUI/bin/Debug/BieuMauBH.xlsx
+++ b/da-ptud-qllkmt/GUI/bin/Debug/BieuMauBH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DA-PTUD-QLLKMT\da-ptud-qllkmt\GUI\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DULIEUHOCTAP\ki6\doan\doan-cnpm\da-ptud-qllkmt\GUI\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Công Ty Nguyễn Sơn</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Giá Tiền</t>
   </si>
   <si>
-    <t>Ngày Lập</t>
-  </si>
-  <si>
     <t>Hồ chí minh, ngày %Ngay tháng %Thang năm %Nam</t>
   </si>
   <si>
@@ -105,12 +102,6 @@
   </si>
   <si>
     <t>%BieuMauBH.giaban</t>
-  </si>
-  <si>
-    <t>%BieuMauBH.TongTien</t>
-  </si>
-  <si>
-    <t>%BieuMauBH.NgayLapHoaDon</t>
   </si>
   <si>
     <t>%BieuMauBH.Seri</t>
@@ -288,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -355,6 +346,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,7 +636,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -662,27 +659,29 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -692,11 +691,12 @@
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -704,11 +704,12 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -724,37 +725,33 @@
         <v>6</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -762,13 +759,13 @@
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="F7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -814,10 +811,11 @@
       <c r="G12" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A8:G12"/>
+    <mergeCell ref="G1:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
